--- a/examples/ReaderTestCorrupted8.xlsx
+++ b/examples/ReaderTestCorrupted8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\php\ws-stolem-dev\stolem\vendor\przeslijmi\xlsxpeasant\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F715944-AE2B-4C4E-8B6C-56DBB171FB08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2EB3C7-AB3E-492E-9DED-C46B0EC4892D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{1C13D4AA-D4E7-4D5D-8AE4-4CC3650298B6}"/>
   </bookViews>
@@ -50,15 +50,6 @@
   </si>
   <si>
     <t>Data.2.2.</t>
-  </si>
-  <si>
-    <t>Free cell B1</t>
-  </si>
-  <si>
-    <t>Free cell C2</t>
-  </si>
-  <si>
-    <t>Free cell B3</t>
   </si>
 </sst>
 </file>
@@ -95,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -467,27 +459,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAFD3C2-FA56-4250-B6FC-FC3B2713A340}">
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
